--- a/dashboard/especificacao-dash.xlsx
+++ b/dashboard/especificacao-dash.xlsx
@@ -5,21 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cynth\OneDrive\Documentos\Cynthia\Faculdade\PI\sprint2\DataTech-Sprint-2\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cynth\OneDrive\Documentos\Cynthia\Faculdade\PI\sprint2\DataTech-Sprint-2\dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133970D0-9198-4EF5-9892-AD18CFAA6064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA678A2-E897-4101-9E83-EF249542DA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9504D507-3B1B-4BA3-8A27-5C4284C0FF3F}"/>
+    <workbookView xWindow="28680" yWindow="-4815" windowWidth="29040" windowHeight="15840" xr2:uid="{9504D507-3B1B-4BA3-8A27-5C4284C0FF3F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Instruções" sheetId="1" r:id="rId1"/>
-    <sheet name="Dados" sheetId="2" r:id="rId2"/>
-    <sheet name="Dashboard geral" sheetId="4" r:id="rId3"/>
-    <sheet name="Dashboard sensor umidade" sheetId="5" r:id="rId4"/>
+    <sheet name="Dados" sheetId="2" r:id="rId1"/>
+    <sheet name="Dashboard geral" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Dados!$C$2:$C$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dados!$C$2:$C$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -60,26 +58,6 @@
   </si>
   <si>
     <t>°C</t>
-  </si>
-  <si>
-    <t>Restrição: Você pode reordenar as linhas e colunas dos dados como achar necessário, só não altere os dados capturados.</t>
-  </si>
-  <si>
-    <t>Pesquisa e Inovação</t>
-  </si>
-  <si>
-    <t>São Paulo Tech School</t>
-  </si>
-  <si>
-    <t>Aula "Dashboards"</t>
-  </si>
-  <si>
-    <t>Exercício 01</t>
-  </si>
-  <si>
-    <t>Objetivo: Criar Dashboards que ajudem o usuário a entender como está a situação de seu negócio.
-1. Todos os sensores
-2. Um sensor específico</t>
   </si>
   <si>
     <t>Temperatura</t>
@@ -116,9 +94,6 @@
   </si>
   <si>
     <t>Dentro da faixa</t>
-  </si>
-  <si>
-    <t>Contexto: Dados capturados em 1 sensor de temperatura e umidade (DHT-11) dentro de um datacenter em um período de 24h.</t>
   </si>
   <si>
     <t>DHT-11</t>
@@ -169,12 +144,6 @@
     <t>Dezembro</t>
   </si>
   <si>
-    <t>Mês com maior umidade</t>
-  </si>
-  <si>
-    <t>Média diária de umidade</t>
-  </si>
-  <si>
     <t>Alerta de temperatura</t>
   </si>
   <si>
@@ -203,25 +172,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFE4005A"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -326,27 +280,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -549,78 +488,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -632,24 +546,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -659,105 +555,91 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2928,943 +2810,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-BR"/>
-              <a:t>Variação</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t> de umidade por dia</a:t>
-            </a:r>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Umidade</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Dados!$C$3:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.41666666666666669</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.45833333333333298</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.54166666666666596</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.58333333333333304</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.66666666666666596</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.70833333333333304</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.79166666666666696</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.83333333333333304</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.91666666666666696</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.95833333333333304</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0416666666666701</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.0833333333333299</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.125</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.1666666666666701</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.2083333333333299</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.2916666666666701</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dados!$F$3:$F$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7D18-4338-B746-11E98F73201D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="998477119"/>
-        <c:axId val="998477599"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="998477119"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="998477599"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="998477599"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="70"/>
-          <c:min val="20"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="998477119"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="10"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-BR"/>
-              <a:t>Média</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t> de Umidade mensal</a:t>
-            </a:r>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.6974138915286639E-2"/>
-          <c:y val="0.13127572016460906"/>
-          <c:w val="0.89523376363587615"/>
-          <c:h val="0.68772148430941082"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Umidade</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dados!$C$32:$C$43</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Janeiro</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Fevereiro</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Março</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Abril</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Maio</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Junho</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Julho</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Agosto</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Setembro</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Outubro</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Novembro</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dezembro</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dados!$D$32:$D$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>56</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-594E-4779-BF1A-A165D11F1DC7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Temperatura</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Dados!$F$32:$F$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>27</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8183-48D5-926E-ADFC80474D29}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="888672159"/>
-        <c:axId val="888677439"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="888672159"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="888677439"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="888677439"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="888672159"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
@@ -4013,86 +2958,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
@@ -6077,1092 +4942,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5090160</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>6681774</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2" descr="SPTECH | Home">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCE62C6E-5DB1-4064-92DB-1F73D201A8DF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6598920" y="274320"/>
-          <a:ext cx="1591614" cy="830580"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7309,87 +5089,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>386715</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>392430</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49481356-72A8-4061-82CE-E62A0CCA4436}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6636293D-1316-402F-B5C3-DCFAE4FAA232}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7714,68 +5413,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9E07DF-AB7B-45FF-83C6-147A6E27C291}">
-  <dimension ref="B2:B9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.77734375" customWidth="1"/>
-    <col min="2" max="2" width="100.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="105" x14ac:dyDescent="0.4">
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" ht="42" x14ac:dyDescent="0.4">
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" ht="42" x14ac:dyDescent="0.4">
-      <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B431B15-5BDC-4018-808C-1B3B68569F9B}">
   <dimension ref="B1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7789,20 +5431,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D1" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="16"/>
+      <c r="D1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
@@ -7825,7 +5467,7 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="52">
         <v>0.33333333333333331</v>
       </c>
       <c r="D3">
@@ -7838,17 +5480,17 @@
         <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="52">
         <v>0.375</v>
       </c>
       <c r="D4">
@@ -7861,17 +5503,17 @@
         <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="52">
         <v>0.41666666666666669</v>
       </c>
       <c r="D5">
@@ -7884,17 +5526,17 @@
         <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="52">
         <v>0.45833333333333298</v>
       </c>
       <c r="D6">
@@ -7907,17 +5549,17 @@
         <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="52">
         <v>0.5</v>
       </c>
       <c r="D7">
@@ -7930,17 +5572,17 @@
         <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="52">
         <v>0.54166666666666596</v>
       </c>
       <c r="D8">
@@ -7953,15 +5595,15 @@
         <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="6">
+        <v>9</v>
+      </c>
+      <c r="M8" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7969,7 +5611,7 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="52">
         <v>0.58333333333333304</v>
       </c>
       <c r="D9">
@@ -7982,18 +5624,18 @@
         <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L9">
         <v>10</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="2">
         <v>0.4</v>
       </c>
     </row>
@@ -8001,7 +5643,7 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="52">
         <v>0.625</v>
       </c>
       <c r="D10">
@@ -8014,13 +5656,13 @@
         <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="L10">
         <v>14</v>
@@ -8030,7 +5672,7 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="52">
         <v>0.66666666666666596</v>
       </c>
       <c r="D11">
@@ -8043,17 +5685,17 @@
         <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="52">
         <v>0.70833333333333304</v>
       </c>
       <c r="D12">
@@ -8066,13 +5708,13 @@
         <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L12">
         <v>7</v>
@@ -8082,7 +5724,7 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="52">
         <v>0.75</v>
       </c>
       <c r="D13">
@@ -8095,13 +5737,13 @@
         <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="L13">
         <v>17</v>
@@ -8111,7 +5753,7 @@
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="52">
         <v>0.79166666666666696</v>
       </c>
       <c r="D14">
@@ -8124,17 +5766,17 @@
         <v>59</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="52">
         <v>0.83333333333333304</v>
       </c>
       <c r="D15">
@@ -8147,17 +5789,17 @@
         <v>61</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="52">
         <v>0.875</v>
       </c>
       <c r="D16">
@@ -8170,17 +5812,17 @@
         <v>65</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="52">
         <v>0.91666666666666696</v>
       </c>
       <c r="D17">
@@ -8193,17 +5835,17 @@
         <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="52">
         <v>0.95833333333333304</v>
       </c>
       <c r="D18">
@@ -8216,17 +5858,17 @@
         <v>57</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H18" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="52">
         <v>1</v>
       </c>
       <c r="D19">
@@ -8239,17 +5881,17 @@
         <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H19" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>18</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="52">
         <v>1.0416666666666701</v>
       </c>
       <c r="D20">
@@ -8262,17 +5904,17 @@
         <v>52</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H20" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>19</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="52">
         <v>1.0833333333333299</v>
       </c>
       <c r="D21">
@@ -8285,17 +5927,17 @@
         <v>50</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H21" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>20</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="52">
         <v>1.125</v>
       </c>
       <c r="D22">
@@ -8308,17 +5950,17 @@
         <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H22" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>21</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="52">
         <v>1.1666666666666701</v>
       </c>
       <c r="D23">
@@ -8331,17 +5973,17 @@
         <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H23" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>22</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="52">
         <v>1.2083333333333299</v>
       </c>
       <c r="D24">
@@ -8354,17 +5996,17 @@
         <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H24" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>23</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="52">
         <v>1.25</v>
       </c>
       <c r="D25">
@@ -8377,17 +6019,17 @@
         <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H25" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>24</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="52">
         <v>1.2916666666666701</v>
       </c>
       <c r="D26">
@@ -8400,15 +6042,15 @@
         <v>44</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H26" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D27">
         <f>AVERAGE(D3:D26)</f>
@@ -8422,40 +6064,40 @@
         <v>52.083333333333336</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H27" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D30" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="16"/>
+      <c r="D30" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="12"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
@@ -8463,13 +6105,13 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D32">
         <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F32">
         <v>22</v>
@@ -8483,13 +6125,13 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D33">
         <v>49</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F33">
         <v>29</v>
@@ -8503,13 +6145,13 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D34">
         <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F34">
         <v>21</v>
@@ -8523,13 +6165,13 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D35">
         <v>47</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F35">
         <v>23</v>
@@ -8543,13 +6185,13 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D36">
         <v>56</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F36">
         <v>25</v>
@@ -8563,13 +6205,13 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D37">
         <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F37">
         <v>19</v>
@@ -8583,13 +6225,13 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D38">
         <v>51</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F38">
         <v>18</v>
@@ -8603,13 +6245,13 @@
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D39">
         <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F39">
         <v>20</v>
@@ -8623,13 +6265,13 @@
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D40">
         <v>48</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F40">
         <v>21</v>
@@ -8643,13 +6285,13 @@
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D41">
         <v>51</v>
       </c>
       <c r="E41" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F41">
         <v>24</v>
@@ -8663,13 +6305,13 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D42">
         <v>57</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F42">
         <v>26</v>
@@ -8683,13 +6325,13 @@
         <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D43">
         <v>56</v>
       </c>
       <c r="E43" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F43">
         <v>27</v>
@@ -8706,17 +6348,17 @@
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="F30:G30"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA91618A-AA18-4DBE-96B8-D10FF334E7AD}">
   <dimension ref="A2:R77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="N55" sqref="N55"/>
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8736,360 +6378,362 @@
   <sheetData>
     <row r="2" spans="9:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I3" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="36"/>
+      <c r="I3" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="30"/>
     </row>
     <row r="4" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I5" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="32"/>
+      <c r="I5" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="26"/>
     </row>
     <row r="6" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I6" s="31"/>
-      <c r="J6" s="32"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I7" s="31"/>
-      <c r="J7" s="32"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I8" s="31"/>
-      <c r="J8" s="32"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I9" s="31"/>
-      <c r="J9" s="32"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="26"/>
     </row>
     <row r="10" spans="9:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I10" s="33"/>
-      <c r="J10" s="34"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="28"/>
     </row>
     <row r="13" spans="9:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I14" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="36"/>
+      <c r="I14" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I15" s="37"/>
-      <c r="J15" s="38"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="32"/>
     </row>
     <row r="16" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I16" s="39">
+      <c r="I16" s="33">
         <v>0.65</v>
       </c>
-      <c r="J16" s="32"/>
+      <c r="J16" s="26"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="I17" s="31"/>
-      <c r="J17" s="32"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="I18" s="31"/>
-      <c r="J18" s="32"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="26"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="I19" s="31"/>
-      <c r="J19" s="32"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="26"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I21" s="33"/>
-      <c r="J21" s="34"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="28"/>
     </row>
     <row r="24" spans="1:18" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="65"/>
-      <c r="D25" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="24"/>
-      <c r="I25" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="41"/>
+      <c r="A25" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="D25" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="49"/>
+      <c r="F25" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="49"/>
+      <c r="I25" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="35"/>
     </row>
     <row r="26" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="66"/>
-      <c r="B26" s="67"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="43"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="51"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="37"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="28"/>
-      <c r="D27" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="18"/>
-      <c r="I27" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="45"/>
-      <c r="R27" s="15"/>
+      <c r="A27" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="D27" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="43"/>
+      <c r="F27" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="43"/>
+      <c r="I27" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="39"/>
+      <c r="R27" s="11"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="45"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="39"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="20"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="45"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="22"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="45"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="20"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="45"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="22"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="39"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="20"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="22"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="39"/>
     </row>
     <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="29"/>
-      <c r="B32" s="30"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="47"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="24"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="47"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="41"/>
     </row>
     <row r="33" spans="1:13" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="65"/>
+      <c r="A34" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="14"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="66"/>
-      <c r="B35" s="67"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
     </row>
     <row r="36" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="68">
+      <c r="A36" s="17">
         <v>10</v>
       </c>
-      <c r="B36" s="69"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
+      <c r="B36" s="18"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
     </row>
     <row r="37" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="68"/>
-      <c r="B37" s="69"/>
-      <c r="K37" s="12"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="K37" s="8"/>
     </row>
     <row r="38" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="68"/>
-      <c r="B38" s="69"/>
-      <c r="K38" s="13"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="68"/>
-      <c r="B39" s="69"/>
-      <c r="K39" s="13"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="68"/>
-      <c r="B40" s="69"/>
-      <c r="K40" s="13"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="K40" s="9"/>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="70"/>
-      <c r="B41" s="71"/>
-      <c r="K41" s="13"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="20"/>
+      <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:13" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I42" s="12"/>
-      <c r="K42" s="13"/>
+      <c r="I42" s="8"/>
+      <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="65"/>
-      <c r="K43" s="13"/>
+      <c r="A43" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="66"/>
-      <c r="B44" s="67"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
     </row>
     <row r="45" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="28"/>
-      <c r="K45" s="12"/>
+      <c r="A45" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="22"/>
+      <c r="K45" s="8"/>
     </row>
     <row r="46" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="27"/>
-      <c r="B46" s="28"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="22"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
     </row>
     <row r="47" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="27"/>
-      <c r="B47" s="28"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="14"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="22"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="10"/>
     </row>
     <row r="48" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="27"/>
-      <c r="B48" s="28"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="14"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="22"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="10"/>
     </row>
     <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="27"/>
-      <c r="B49" s="28"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="14"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="22"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="10"/>
     </row>
     <row r="50" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="29"/>
-      <c r="B50" s="30"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="24"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
     </row>
     <row r="51" spans="1:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
     </row>
     <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="65"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
+      <c r="A52" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="66"/>
-      <c r="B53" s="67"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="16"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="68">
+      <c r="A54" s="17">
         <v>7</v>
       </c>
-      <c r="B54" s="69"/>
+      <c r="B54" s="18"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="68"/>
-      <c r="B55" s="69"/>
-      <c r="N55" s="15"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="18"/>
+      <c r="N55" s="11"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="68"/>
-      <c r="B56" s="69"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="18"/>
     </row>
     <row r="57" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="68"/>
-      <c r="B57" s="69"/>
-      <c r="H57" s="7"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="18"/>
+      <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="68"/>
-      <c r="B58" s="69"/>
-      <c r="H58" s="8"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="18"/>
+      <c r="H58" s="4"/>
     </row>
     <row r="59" spans="1:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="70"/>
-      <c r="B59" s="71"/>
-      <c r="H59" s="8"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="20"/>
+      <c r="H59" s="4"/>
     </row>
     <row r="60" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H60" s="8"/>
+      <c r="H60" s="4"/>
     </row>
     <row r="61" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H61" s="8"/>
+      <c r="H61" s="4"/>
     </row>
     <row r="65" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H65" s="9"/>
+      <c r="H65" s="5"/>
     </row>
     <row r="66" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H66" s="9"/>
+      <c r="H66" s="5"/>
     </row>
     <row r="67" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H67" s="9"/>
+      <c r="H67" s="5"/>
     </row>
     <row r="68" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H68" s="9"/>
+      <c r="H68" s="5"/>
     </row>
     <row r="69" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H69" s="9"/>
+      <c r="H69" s="5"/>
     </row>
     <row r="70" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H70" s="4"/>
+      <c r="H70" s="1"/>
     </row>
     <row r="73" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H73" s="10"/>
+      <c r="H73" s="6"/>
     </row>
     <row r="74" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H74" s="11"/>
+      <c r="H74" s="7"/>
     </row>
     <row r="75" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H75" s="11"/>
+      <c r="H75" s="7"/>
     </row>
     <row r="76" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H76" s="11"/>
+      <c r="H76" s="7"/>
     </row>
     <row r="77" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H77" s="11"/>
+      <c r="H77" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F27:G32"/>
+    <mergeCell ref="A43:B44"/>
     <mergeCell ref="A52:B53"/>
     <mergeCell ref="A54:B59"/>
     <mergeCell ref="A45:B50"/>
@@ -9106,126 +6750,6 @@
     <mergeCell ref="D27:E32"/>
     <mergeCell ref="D25:E26"/>
     <mergeCell ref="F25:G26"/>
-    <mergeCell ref="F27:G32"/>
-    <mergeCell ref="A43:B44"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980F7C5E-87E3-43F3-B1DC-C7D0A565CD6F}">
-  <dimension ref="I7:J29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16:J16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="10" max="10" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="9:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="9:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I8" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="54"/>
-    </row>
-    <row r="9" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I9" s="55">
-        <v>0.65</v>
-      </c>
-      <c r="J9" s="56"/>
-    </row>
-    <row r="10" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I10" s="57"/>
-      <c r="J10" s="56"/>
-    </row>
-    <row r="11" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I11" s="57"/>
-      <c r="J11" s="56"/>
-    </row>
-    <row r="12" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I12" s="57"/>
-      <c r="J12" s="56"/>
-    </row>
-    <row r="13" spans="9:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
-    </row>
-    <row r="15" spans="9:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="9:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I16" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="54"/>
-    </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I17" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="61"/>
-    </row>
-    <row r="18" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I18" s="60"/>
-      <c r="J18" s="61"/>
-    </row>
-    <row r="19" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I19" s="60"/>
-      <c r="J19" s="61"/>
-    </row>
-    <row r="20" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I20" s="60"/>
-      <c r="J20" s="61"/>
-    </row>
-    <row r="21" spans="9:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I21" s="62"/>
-      <c r="J21" s="63"/>
-    </row>
-    <row r="22" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="9:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="9:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I24" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="J24" s="54"/>
-    </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I25" s="48">
-        <v>0.55079999999999996</v>
-      </c>
-      <c r="J25" s="49"/>
-    </row>
-    <row r="26" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I26" s="50"/>
-      <c r="J26" s="49"/>
-    </row>
-    <row r="27" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I27" s="50"/>
-      <c r="J27" s="49"/>
-    </row>
-    <row r="28" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I28" s="50"/>
-      <c r="J28" s="49"/>
-    </row>
-    <row r="29" spans="9:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I29" s="51"/>
-      <c r="J29" s="52"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="I25:J29"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J13"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J21"/>
-    <mergeCell ref="I24:J24"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -9233,12 +6757,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="90fcf95d-5720-49ef-8433-32c5e8162615">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9461,19 +6986,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="90fcf95d-5720-49ef-8433-32c5e8162615">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{644901F6-D494-434C-8948-F604DCF7F096}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03ADDD95-D2F0-4266-A4B5-2CD0720E3AA9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="90fcf95d-5720-49ef-8433-32c5e8162615"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9498,11 +7024,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03ADDD95-D2F0-4266-A4B5-2CD0720E3AA9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{644901F6-D494-434C-8948-F604DCF7F096}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="90fcf95d-5720-49ef-8433-32c5e8162615"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/dashboard/especificacao-dash.xlsx
+++ b/dashboard/especificacao-dash.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cynth\OneDrive\Documentos\Cynthia\Faculdade\PI\sprint2\DataTech-Sprint-2\dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/724b8c8d01510d67/Documentos/DATATECH/DataTech-Sprint-2/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA678A2-E897-4101-9E83-EF249542DA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4815" windowWidth="29040" windowHeight="15840" xr2:uid="{9504D507-3B1B-4BA3-8A27-5C4284C0FF3F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{9504D507-3B1B-4BA3-8A27-5C4284C0FF3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="2" r:id="rId1"/>
@@ -519,8 +519,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -609,24 +628,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -639,7 +640,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5416,31 +5416,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B431B15-5BDC-4018-808C-1B3B68569F9B}">
   <dimension ref="B1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D1" s="12" t="s">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -5463,11 +5463,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="12">
         <v>0.33333333333333331</v>
       </c>
       <c r="D3">
@@ -5486,11 +5486,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="12">
         <v>0.375</v>
       </c>
       <c r="D4">
@@ -5509,11 +5509,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="12">
         <v>0.41666666666666669</v>
       </c>
       <c r="D5">
@@ -5532,11 +5532,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="12">
         <v>0.45833333333333298</v>
       </c>
       <c r="D6">
@@ -5555,11 +5555,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="12">
         <v>0.5</v>
       </c>
       <c r="D7">
@@ -5578,11 +5578,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="52">
+      <c r="C8" s="12">
         <v>0.54166666666666596</v>
       </c>
       <c r="D8">
@@ -5607,11 +5607,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="52">
+      <c r="C9" s="12">
         <v>0.58333333333333304</v>
       </c>
       <c r="D9">
@@ -5639,11 +5639,11 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="12">
         <v>0.625</v>
       </c>
       <c r="D10">
@@ -5668,11 +5668,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="12">
         <v>0.66666666666666596</v>
       </c>
       <c r="D11">
@@ -5691,11 +5691,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="12">
         <v>0.70833333333333304</v>
       </c>
       <c r="D12">
@@ -5720,11 +5720,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="12">
         <v>0.75</v>
       </c>
       <c r="D13">
@@ -5749,11 +5749,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="52">
+      <c r="C14" s="12">
         <v>0.79166666666666696</v>
       </c>
       <c r="D14">
@@ -5772,11 +5772,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="52">
+      <c r="C15" s="12">
         <v>0.83333333333333304</v>
       </c>
       <c r="D15">
@@ -5795,11 +5795,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="52">
+      <c r="C16" s="12">
         <v>0.875</v>
       </c>
       <c r="D16">
@@ -5818,11 +5818,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="52">
+      <c r="C17" s="12">
         <v>0.91666666666666696</v>
       </c>
       <c r="D17">
@@ -5841,11 +5841,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="12">
         <v>0.95833333333333304</v>
       </c>
       <c r="D18">
@@ -5864,11 +5864,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="52">
+      <c r="C19" s="12">
         <v>1</v>
       </c>
       <c r="D19">
@@ -5887,11 +5887,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>18</v>
       </c>
-      <c r="C20" s="52">
+      <c r="C20" s="12">
         <v>1.0416666666666701</v>
       </c>
       <c r="D20">
@@ -5910,11 +5910,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>19</v>
       </c>
-      <c r="C21" s="52">
+      <c r="C21" s="12">
         <v>1.0833333333333299</v>
       </c>
       <c r="D21">
@@ -5933,11 +5933,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>20</v>
       </c>
-      <c r="C22" s="52">
+      <c r="C22" s="12">
         <v>1.125</v>
       </c>
       <c r="D22">
@@ -5956,11 +5956,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>21</v>
       </c>
-      <c r="C23" s="52">
+      <c r="C23" s="12">
         <v>1.1666666666666701</v>
       </c>
       <c r="D23">
@@ -5979,11 +5979,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>22</v>
       </c>
-      <c r="C24" s="52">
+      <c r="C24" s="12">
         <v>1.2083333333333299</v>
       </c>
       <c r="D24">
@@ -6002,11 +6002,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>23</v>
       </c>
-      <c r="C25" s="52">
+      <c r="C25" s="12">
         <v>1.25</v>
       </c>
       <c r="D25">
@@ -6025,11 +6025,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>24</v>
       </c>
-      <c r="C26" s="52">
+      <c r="C26" s="12">
         <v>1.2916666666666701</v>
       </c>
       <c r="D26">
@@ -6048,7 +6048,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>15</v>
       </c>
@@ -6070,17 +6070,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D30" s="12" t="s">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D30" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12" t="s">
+      <c r="E30" s="13"/>
+      <c r="F30" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>0</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>1</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>2</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>3</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>4</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>5</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>6</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>7</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>8</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>9</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>10</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>11</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>12</v>
       </c>
@@ -6357,392 +6357,381 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA91618A-AA18-4DBE-96B8-D10FF334E7AD}">
   <dimension ref="A2:R77"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="3" max="3" width="2.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" customWidth="1"/>
-    <col min="8" max="8" width="2.33203125" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
-    <col min="11" max="14" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.36328125" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="3" max="3" width="2.36328125" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" customWidth="1"/>
+    <col min="8" max="8" width="2.36328125" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" customWidth="1"/>
+    <col min="11" max="14" width="16.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="9:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I3" s="29" t="s">
+    <row r="2" spans="9:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I4" s="31"/>
-      <c r="J4" s="32"/>
-    </row>
-    <row r="5" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I5" s="25" t="s">
+      <c r="J3" s="37"/>
+    </row>
+    <row r="4" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I4" s="38"/>
+      <c r="J4" s="39"/>
+    </row>
+    <row r="5" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="26"/>
-    </row>
-    <row r="6" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
-    </row>
-    <row r="7" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I7" s="25"/>
-      <c r="J7" s="26"/>
-    </row>
-    <row r="8" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
-    </row>
-    <row r="9" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I9" s="25"/>
-      <c r="J9" s="26"/>
-    </row>
-    <row r="10" spans="9:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I10" s="27"/>
-      <c r="J10" s="28"/>
-    </row>
-    <row r="13" spans="9:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I14" s="29" t="s">
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
+    </row>
+    <row r="9" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I9" s="32"/>
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" spans="9:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I10" s="34"/>
+      <c r="J10" s="35"/>
+    </row>
+    <row r="13" spans="9:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I14" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="30"/>
-    </row>
-    <row r="15" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I15" s="31"/>
-      <c r="J15" s="32"/>
-    </row>
-    <row r="16" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I16" s="33">
+      <c r="J14" s="37"/>
+    </row>
+    <row r="15" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I15" s="38"/>
+      <c r="J15" s="39"/>
+    </row>
+    <row r="16" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I16" s="40">
         <v>0.65</v>
       </c>
-      <c r="J16" s="26"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="I18" s="25"/>
-      <c r="J18" s="26"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="I19" s="25"/>
-      <c r="J19" s="26"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="I20" s="25"/>
-      <c r="J20" s="26"/>
-    </row>
-    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I21" s="27"/>
-      <c r="J21" s="28"/>
-    </row>
-    <row r="24" spans="1:18" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
+      <c r="J16" s="33"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="I17" s="32"/>
+      <c r="J17" s="33"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="I18" s="32"/>
+      <c r="J18" s="33"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="I19" s="32"/>
+      <c r="J19" s="33"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="I20" s="32"/>
+      <c r="J20" s="33"/>
+    </row>
+    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I21" s="34"/>
+      <c r="J21" s="35"/>
+    </row>
+    <row r="24" spans="1:18" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="D25" s="48" t="s">
+      <c r="B25" s="21"/>
+      <c r="D25" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="48" t="s">
+      <c r="E25" s="50"/>
+      <c r="F25" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="49"/>
-      <c r="I25" s="34" t="s">
+      <c r="G25" s="50"/>
+      <c r="I25" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="J25" s="35"/>
-    </row>
-    <row r="26" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="51"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="37"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
+      <c r="J25" s="42"/>
+    </row>
+    <row r="26" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="52"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="44"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A27" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="D27" s="42" t="s">
+      <c r="B27" s="29"/>
+      <c r="D27" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="42" t="s">
+      <c r="E27" s="15"/>
+      <c r="F27" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G27" s="43"/>
-      <c r="I27" s="38" t="s">
+      <c r="G27" s="15"/>
+      <c r="I27" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="39"/>
+      <c r="J27" s="46"/>
       <c r="R27" s="11"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="39"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
-      <c r="B29" s="22"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="45"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="22"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="39"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="22"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="45"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="39"/>
-    </row>
-    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="23"/>
-      <c r="B32" s="24"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="47"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
-    </row>
-    <row r="33" spans="1:13" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A28" s="28"/>
+      <c r="B28" s="29"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="46"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A29" s="28"/>
+      <c r="B29" s="29"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="46"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="46"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A31" s="28"/>
+      <c r="B31" s="29"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="46"/>
+    </row>
+    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="30"/>
+      <c r="B32" s="31"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="19"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="48"/>
+    </row>
+    <row r="33" spans="1:13" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="34" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="14"/>
-    </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-    </row>
-    <row r="36" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="17">
+      <c r="B34" s="21"/>
+    </row>
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="22"/>
+      <c r="B35" s="23"/>
+    </row>
+    <row r="36" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="24">
         <v>10</v>
       </c>
-      <c r="B36" s="18"/>
+      <c r="B36" s="25"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
     </row>
-    <row r="37" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
+    <row r="37" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="24"/>
+      <c r="B37" s="25"/>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
+    <row r="38" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="24"/>
+      <c r="B38" s="25"/>
       <c r="K38" s="9"/>
     </row>
-    <row r="39" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
+    <row r="39" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="24"/>
+      <c r="B39" s="25"/>
       <c r="K39" s="9"/>
     </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="24"/>
+      <c r="B40" s="25"/>
       <c r="K40" s="9"/>
     </row>
-    <row r="41" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
+    <row r="41" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="26"/>
+      <c r="B41" s="27"/>
       <c r="K41" s="9"/>
     </row>
-    <row r="42" spans="1:13" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I42" s="8"/>
       <c r="K42" s="9"/>
     </row>
-    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="14"/>
+      <c r="B43" s="21"/>
       <c r="K43" s="9"/>
     </row>
-    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="15"/>
-      <c r="B44" s="16"/>
-    </row>
-    <row r="45" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="21" t="s">
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="22"/>
+      <c r="B44" s="23"/>
+    </row>
+    <row r="45" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="22"/>
+      <c r="B45" s="29"/>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="21"/>
-      <c r="B46" s="22"/>
+    <row r="46" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="28"/>
+      <c r="B46" s="29"/>
       <c r="K46" s="8"/>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
     </row>
-    <row r="47" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="21"/>
-      <c r="B47" s="22"/>
+    <row r="47" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="28"/>
+      <c r="B47" s="29"/>
       <c r="K47" s="9"/>
       <c r="L47" s="10"/>
     </row>
-    <row r="48" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="21"/>
-      <c r="B48" s="22"/>
+    <row r="48" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="28"/>
+      <c r="B48" s="29"/>
       <c r="K48" s="9"/>
       <c r="L48" s="10"/>
     </row>
-    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="21"/>
-      <c r="B49" s="22"/>
+    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="28"/>
+      <c r="B49" s="29"/>
       <c r="K49" s="9"/>
       <c r="L49" s="10"/>
     </row>
-    <row r="50" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="23"/>
-      <c r="B50" s="24"/>
+    <row r="50" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="30"/>
+      <c r="B50" s="31"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
     </row>
-    <row r="51" spans="1:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
     </row>
-    <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
+    <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="14"/>
+      <c r="B52" s="21"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="15"/>
-      <c r="B53" s="16"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="17">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A53" s="22"/>
+      <c r="B53" s="23"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A54" s="24">
         <v>7</v>
       </c>
-      <c r="B54" s="18"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="17"/>
-      <c r="B55" s="18"/>
+      <c r="B54" s="25"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A55" s="24"/>
+      <c r="B55" s="25"/>
       <c r="N55" s="11"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="17"/>
-      <c r="B56" s="18"/>
-    </row>
-    <row r="57" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="17"/>
-      <c r="B57" s="18"/>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A56" s="24"/>
+      <c r="B56" s="25"/>
+    </row>
+    <row r="57" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="24"/>
+      <c r="B57" s="25"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="17"/>
-      <c r="B58" s="18"/>
+    <row r="58" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="24"/>
+      <c r="B58" s="25"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="19"/>
-      <c r="B59" s="20"/>
+    <row r="59" spans="1:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="26"/>
+      <c r="B59" s="27"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H61" s="4"/>
     </row>
-    <row r="65" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H65" s="5"/>
     </row>
-    <row r="66" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H66" s="5"/>
     </row>
-    <row r="67" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H67" s="5"/>
     </row>
-    <row r="68" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H68" s="5"/>
     </row>
-    <row r="69" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H69" s="5"/>
     </row>
-    <row r="70" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H70" s="1"/>
     </row>
-    <row r="73" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H77" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F27:G32"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="A52:B53"/>
-    <mergeCell ref="A54:B59"/>
-    <mergeCell ref="A45:B50"/>
-    <mergeCell ref="I5:J10"/>
-    <mergeCell ref="I3:J4"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="I16:J21"/>
-    <mergeCell ref="I25:J26"/>
-    <mergeCell ref="A27:B32"/>
     <mergeCell ref="A25:B26"/>
     <mergeCell ref="I27:J32"/>
     <mergeCell ref="A34:B35"/>
@@ -6750,6 +6739,17 @@
     <mergeCell ref="D27:E32"/>
     <mergeCell ref="D25:E26"/>
     <mergeCell ref="F25:G26"/>
+    <mergeCell ref="I5:J10"/>
+    <mergeCell ref="I3:J4"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="I16:J21"/>
+    <mergeCell ref="I25:J26"/>
+    <mergeCell ref="F27:G32"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="A54:B59"/>
+    <mergeCell ref="A45:B50"/>
+    <mergeCell ref="A27:B32"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -6757,13 +6757,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="90fcf95d-5720-49ef-8433-32c5e8162615">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6986,20 +6985,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="90fcf95d-5720-49ef-8433-32c5e8162615">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03ADDD95-D2F0-4266-A4B5-2CD0720E3AA9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{644901F6-D494-434C-8948-F604DCF7F096}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="90fcf95d-5720-49ef-8433-32c5e8162615"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7024,9 +7022,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{644901F6-D494-434C-8948-F604DCF7F096}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03ADDD95-D2F0-4266-A4B5-2CD0720E3AA9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="90fcf95d-5720-49ef-8433-32c5e8162615"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/dashboard/especificacao-dash.xlsx
+++ b/dashboard/especificacao-dash.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/724b8c8d01510d67/Documentos/DATATECH/DataTech-Sprint-2/dashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cynth\OneDrive\Documentos\Cynthia\Faculdade\PI\DataTech-Sprint-2\dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA678A2-E897-4101-9E83-EF249542DA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BC26B9-EC86-4D09-BD6E-5BAF8506CE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{9504D507-3B1B-4BA3-8A27-5C4284C0FF3F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9504D507-3B1B-4BA3-8A27-5C4284C0FF3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="2" r:id="rId1"/>
@@ -523,6 +523,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -541,40 +577,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -616,28 +628,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -751,8 +751,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="1.9075561252077784E-2"/>
-          <c:y val="0.12015606821902962"/>
+          <c:x val="4.2915972525208672E-2"/>
+          <c:y val="0.10019344346127569"/>
           <c:w val="0.96239761280115355"/>
           <c:h val="0.69383423226400398"/>
         </c:manualLayout>
@@ -5059,13 +5059,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1618</xdr:colOff>
+      <xdr:colOff>1617</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>170159</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>891049</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>20484</xdr:rowOff>
     </xdr:to>
@@ -5420,17 +5420,17 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.54296875" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D1" s="13" t="s">
         <v>6</v>
       </c>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>5</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>6</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>7</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>8</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>9</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>10</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>11</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>12</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>13</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>14</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>15</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>16</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>17</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>18</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>19</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>20</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>21</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>22</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>23</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>24</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>15</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D30" s="13" t="s">
         <v>7</v>
       </c>
@@ -6080,7 +6080,7 @@
       </c>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>0</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>1</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>2</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>3</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>4</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>5</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>6</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>7</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>8</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>9</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>10</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>11</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>12</v>
       </c>
@@ -6358,380 +6358,390 @@
   <dimension ref="A2:R77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+      <selection activeCell="P18" sqref="O3:P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
-    <col min="3" max="3" width="2.36328125" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" customWidth="1"/>
-    <col min="7" max="7" width="13.81640625" customWidth="1"/>
-    <col min="8" max="8" width="2.36328125" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" customWidth="1"/>
-    <col min="11" max="14" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="2.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" customWidth="1"/>
+    <col min="8" max="8" width="2.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="14" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="9:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I3" s="36" t="s">
+    <row r="2" spans="9:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I3" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="37"/>
-    </row>
-    <row r="4" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I4" s="38"/>
-      <c r="J4" s="39"/>
-    </row>
-    <row r="5" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I5" s="32" t="s">
+      <c r="J3" s="41"/>
+    </row>
+    <row r="4" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I4" s="42"/>
+      <c r="J4" s="43"/>
+    </row>
+    <row r="5" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I5" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="33"/>
-    </row>
-    <row r="6" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I6" s="32"/>
-      <c r="J6" s="33"/>
-    </row>
-    <row r="7" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I7" s="32"/>
-      <c r="J7" s="33"/>
-    </row>
-    <row r="8" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
-    </row>
-    <row r="9" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I9" s="32"/>
-      <c r="J9" s="33"/>
-    </row>
-    <row r="10" spans="9:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I10" s="34"/>
-      <c r="J10" s="35"/>
-    </row>
-    <row r="13" spans="9:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I14" s="36" t="s">
+      <c r="J5" s="37"/>
+    </row>
+    <row r="6" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I7" s="36"/>
+      <c r="J7" s="37"/>
+    </row>
+    <row r="8" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I8" s="36"/>
+      <c r="J8" s="37"/>
+    </row>
+    <row r="9" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I9" s="36"/>
+      <c r="J9" s="37"/>
+    </row>
+    <row r="10" spans="9:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
+    </row>
+    <row r="13" spans="9:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I14" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="37"/>
-    </row>
-    <row r="15" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I15" s="38"/>
-      <c r="J15" s="39"/>
-    </row>
-    <row r="16" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I16" s="40">
+      <c r="J14" s="41"/>
+    </row>
+    <row r="15" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I15" s="42"/>
+      <c r="J15" s="43"/>
+    </row>
+    <row r="16" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I16" s="44">
         <v>0.65</v>
       </c>
-      <c r="J16" s="33"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="I17" s="32"/>
-      <c r="J17" s="33"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="I18" s="32"/>
-      <c r="J18" s="33"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="I19" s="32"/>
-      <c r="J19" s="33"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="I20" s="32"/>
-      <c r="J20" s="33"/>
-    </row>
-    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I21" s="34"/>
-      <c r="J21" s="35"/>
-    </row>
-    <row r="24" spans="1:18" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="25" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="20" t="s">
+      <c r="J16" s="37"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I19" s="36"/>
+      <c r="J19" s="37"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
+    </row>
+    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I21" s="38"/>
+      <c r="J21" s="39"/>
+    </row>
+    <row r="24" spans="1:18" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="D25" s="49" t="s">
+      <c r="B25" s="15"/>
+      <c r="D25" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="50"/>
-      <c r="F25" s="49" t="s">
+      <c r="E25" s="33"/>
+      <c r="F25" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="50"/>
-      <c r="I25" s="41" t="s">
+      <c r="G25" s="33"/>
+      <c r="I25" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="J25" s="42"/>
-    </row>
-    <row r="26" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="52"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="44"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A27" s="28" t="s">
+      <c r="J25" s="46"/>
+    </row>
+    <row r="26" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="48"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="D27" s="14" t="s">
+      <c r="B27" s="50"/>
+      <c r="D27" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="14" t="s">
+      <c r="E27" s="27"/>
+      <c r="F27" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G27" s="15"/>
-      <c r="I27" s="45" t="s">
+      <c r="G27" s="27"/>
+      <c r="I27" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="46"/>
+      <c r="J27" s="19"/>
       <c r="R27" s="11"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="46"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A29" s="28"/>
-      <c r="B29" s="29"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="46"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="17"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="46"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A31" s="28"/>
-      <c r="B31" s="29"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="17"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="46"/>
-    </row>
-    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="30"/>
-      <c r="B32" s="31"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="19"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="48"/>
-    </row>
-    <row r="33" spans="1:13" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="34" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="20" t="s">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="49"/>
+      <c r="B28" s="50"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="19"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="49"/>
+      <c r="B29" s="50"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="19"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="49"/>
+      <c r="B30" s="50"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="19"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="49"/>
+      <c r="B31" s="50"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="29"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="19"/>
+    </row>
+    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="51"/>
+      <c r="B32" s="52"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="31"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="1:13" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="21"/>
-    </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="22"/>
-      <c r="B35" s="23"/>
-    </row>
-    <row r="36" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="24">
+      <c r="B34" s="15"/>
+    </row>
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+    </row>
+    <row r="36" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="22">
         <v>10</v>
       </c>
-      <c r="B36" s="25"/>
+      <c r="B36" s="23"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
     </row>
-    <row r="37" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="24"/>
-      <c r="B37" s="25"/>
+    <row r="37" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="22"/>
+      <c r="B37" s="23"/>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="24"/>
-      <c r="B38" s="25"/>
+    <row r="38" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="22"/>
+      <c r="B38" s="23"/>
       <c r="K38" s="9"/>
     </row>
-    <row r="39" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="24"/>
-      <c r="B39" s="25"/>
+    <row r="39" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="22"/>
+      <c r="B39" s="23"/>
       <c r="K39" s="9"/>
     </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="24"/>
-      <c r="B40" s="25"/>
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="22"/>
+      <c r="B40" s="23"/>
       <c r="K40" s="9"/>
     </row>
-    <row r="41" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="26"/>
-      <c r="B41" s="27"/>
+    <row r="41" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="24"/>
+      <c r="B41" s="25"/>
       <c r="K41" s="9"/>
     </row>
-    <row r="42" spans="1:13" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:13" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I42" s="8"/>
       <c r="K42" s="9"/>
     </row>
-    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="20" t="s">
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="21"/>
+      <c r="B43" s="15"/>
       <c r="K43" s="9"/>
     </row>
-    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="22"/>
-      <c r="B44" s="23"/>
-    </row>
-    <row r="45" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="28" t="s">
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="16"/>
+      <c r="B44" s="17"/>
+    </row>
+    <row r="45" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="29"/>
+      <c r="B45" s="50"/>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="28"/>
-      <c r="B46" s="29"/>
+    <row r="46" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="49"/>
+      <c r="B46" s="50"/>
       <c r="K46" s="8"/>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
     </row>
-    <row r="47" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="28"/>
-      <c r="B47" s="29"/>
+    <row r="47" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="49"/>
+      <c r="B47" s="50"/>
       <c r="K47" s="9"/>
       <c r="L47" s="10"/>
     </row>
-    <row r="48" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="28"/>
-      <c r="B48" s="29"/>
+    <row r="48" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="49"/>
+      <c r="B48" s="50"/>
       <c r="K48" s="9"/>
       <c r="L48" s="10"/>
     </row>
-    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="28"/>
-      <c r="B49" s="29"/>
+    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="49"/>
+      <c r="B49" s="50"/>
       <c r="K49" s="9"/>
       <c r="L49" s="10"/>
     </row>
-    <row r="50" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="30"/>
-      <c r="B50" s="31"/>
+    <row r="50" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="51"/>
+      <c r="B50" s="52"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
     </row>
-    <row r="51" spans="1:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
     </row>
-    <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="20" t="s">
+    <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="21"/>
+      <c r="B52" s="15"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A53" s="22"/>
-      <c r="B53" s="23"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A54" s="24">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="16"/>
+      <c r="B53" s="17"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="22">
         <v>7</v>
       </c>
-      <c r="B54" s="25"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A55" s="24"/>
-      <c r="B55" s="25"/>
+      <c r="B54" s="23"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="22"/>
+      <c r="B55" s="23"/>
       <c r="N55" s="11"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A56" s="24"/>
-      <c r="B56" s="25"/>
-    </row>
-    <row r="57" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="24"/>
-      <c r="B57" s="25"/>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="22"/>
+      <c r="B56" s="23"/>
+    </row>
+    <row r="57" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="22"/>
+      <c r="B57" s="23"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="24"/>
-      <c r="B58" s="25"/>
+    <row r="58" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="22"/>
+      <c r="B58" s="23"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="26"/>
-      <c r="B59" s="27"/>
+    <row r="59" spans="1:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="24"/>
+      <c r="B59" s="25"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H61" s="4"/>
     </row>
-    <row r="65" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H65" s="5"/>
     </row>
-    <row r="66" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H66" s="5"/>
     </row>
-    <row r="67" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H67" s="5"/>
     </row>
-    <row r="68" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H68" s="5"/>
     </row>
-    <row r="69" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H69" s="5"/>
     </row>
-    <row r="70" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H70" s="1"/>
     </row>
-    <row r="73" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H77" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="A54:B59"/>
+    <mergeCell ref="A45:B50"/>
+    <mergeCell ref="A27:B32"/>
+    <mergeCell ref="I5:J10"/>
+    <mergeCell ref="I3:J4"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="I16:J21"/>
+    <mergeCell ref="I25:J26"/>
     <mergeCell ref="A25:B26"/>
     <mergeCell ref="I27:J32"/>
     <mergeCell ref="A34:B35"/>
@@ -6739,17 +6749,7 @@
     <mergeCell ref="D27:E32"/>
     <mergeCell ref="D25:E26"/>
     <mergeCell ref="F25:G26"/>
-    <mergeCell ref="I5:J10"/>
-    <mergeCell ref="I3:J4"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="I16:J21"/>
-    <mergeCell ref="I25:J26"/>
     <mergeCell ref="F27:G32"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="A52:B53"/>
-    <mergeCell ref="A54:B59"/>
-    <mergeCell ref="A45:B50"/>
-    <mergeCell ref="A27:B32"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -6757,12 +6757,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="90fcf95d-5720-49ef-8433-32c5e8162615">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6985,19 +6986,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="90fcf95d-5720-49ef-8433-32c5e8162615">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{644901F6-D494-434C-8948-F604DCF7F096}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03ADDD95-D2F0-4266-A4B5-2CD0720E3AA9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="90fcf95d-5720-49ef-8433-32c5e8162615"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7022,11 +7024,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03ADDD95-D2F0-4266-A4B5-2CD0720E3AA9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{644901F6-D494-434C-8948-F604DCF7F096}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="90fcf95d-5720-49ef-8433-32c5e8162615"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>